--- a/data/sheets/O&G.xlsx
+++ b/data/sheets/O&G.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB9FC441-4685-4B7A-9E93-3706E5B49853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6847690-8783-48E5-9591-E1B9B5C74EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C245AAF-CC68-4F6B-A55D-E223F5A4F010}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{057080CB-1E86-4B6D-9B64-F08F5175C86E}"/>
   </bookViews>
   <sheets>
-    <sheet name="O&amp;G" sheetId="2" r:id="rId1"/>
+    <sheet name="O&amp;G" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -452,14 +451,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -808,291 +800,289 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{4047F253-007F-42FA-89EE-F0F4C6F2942F}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{9C332572-C2E6-4501-B24A-EE21780DFD18}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1570,14 +1560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EFD56F-EEE3-4216-9B8A-604CC7C1E302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1F7975-5F80-4E90-908E-381843D7368D}">
   <dimension ref="A1:AD61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D29" workbookViewId="0">
       <selection activeCell="I2678" sqref="I2678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="10.77734375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -1611,7 +1601,7 @@
     <col min="35" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1746,7 +1736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
@@ -1792,7 +1782,7 @@
       </c>
       <c r="AD3" s="26"/>
     </row>
-    <row r="4" spans="1:30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E4" s="10"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
@@ -1819,7 +1809,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16.8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="16.8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="D5" s="31" t="s">
         <v>39</v>
       </c>
@@ -1849,7 +1839,7 @@
       <c r="AB5" s="35"/>
       <c r="AC5" s="35"/>
     </row>
-    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E6, A$3)</f>
         <v>#NAME?</v>
@@ -1965,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E7, A$3)</f>
         <v>#NAME?</v>
@@ -2081,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E8, A$3)</f>
         <v>#NAME?</v>
@@ -2197,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E9, A$3)</f>
         <v>#NAME?</v>
@@ -2304,7 +2294,7 @@
       <c r="AB9" s="50"/>
       <c r="AC9" s="50"/>
     </row>
-    <row r="10" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E10, A$3)</f>
         <v>#NAME?</v>
@@ -2411,7 +2401,7 @@
       <c r="AB10" s="50"/>
       <c r="AC10" s="50"/>
     </row>
-    <row r="11" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E11, A$3)</f>
         <v>#NAME?</v>
@@ -2518,7 +2508,7 @@
       <c r="AB11" s="50"/>
       <c r="AC11" s="50"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D12" s="61"/>
       <c r="E12" s="61" t="s">
         <v>52</v>
@@ -2605,7 +2595,7 @@
       <c r="AB12" s="71"/>
       <c r="AC12" s="71"/>
     </row>
-    <row r="13" spans="1:30" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="16.8" x14ac:dyDescent="0.25">
       <c r="D13" s="31" t="s">
         <v>53</v>
       </c>
@@ -2635,7 +2625,7 @@
       <c r="AB13" s="35"/>
       <c r="AC13" s="35"/>
     </row>
-    <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E14, A$3)</f>
         <v>#NAME?</v>
@@ -2751,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E15, A$3)</f>
         <v>#NAME?</v>
@@ -2867,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E16, A$3)</f>
         <v>#NAME?</v>
@@ -2983,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E17, A$3)</f>
         <v>#NAME?</v>
@@ -3099,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E18, A$3)</f>
         <v>#NAME?</v>
@@ -3215,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E19, A$3)</f>
         <v>#NAME?</v>
@@ -3331,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E20, A$3)</f>
         <v>#NAME?</v>
@@ -3438,7 +3428,7 @@
       <c r="AB20" s="50"/>
       <c r="AC20" s="50"/>
     </row>
-    <row r="21" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E21, A$3)</f>
         <v>#NAME?</v>
@@ -3545,7 +3535,7 @@
       <c r="AB21" s="50"/>
       <c r="AC21" s="50"/>
     </row>
-    <row r="22" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E22, A$3)</f>
         <v>#NAME?</v>
@@ -3652,7 +3642,7 @@
       <c r="AB22" s="50"/>
       <c r="AC22" s="50"/>
     </row>
-    <row r="23" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E23, A$3)</f>
         <v>#NAME?</v>
@@ -3759,7 +3749,7 @@
       <c r="AB23" s="50"/>
       <c r="AC23" s="50"/>
     </row>
-    <row r="24" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E24, A$3)</f>
         <v>#NAME?</v>
@@ -3866,7 +3856,7 @@
       <c r="AB24" s="50"/>
       <c r="AC24" s="50"/>
     </row>
-    <row r="25" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E25, A$3)</f>
         <v>#NAME?</v>
@@ -3982,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E26, A$3)</f>
         <v>#NAME?</v>
@@ -4098,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D27" s="61"/>
       <c r="E27" s="61" t="s">
         <v>52</v>
@@ -4184,7 +4174,7 @@
       <c r="AA27" s="71"/>
       <c r="AB27" s="71"/>
     </row>
-    <row r="28" spans="1:29" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="16.8" x14ac:dyDescent="0.25">
       <c r="D28" s="31" t="s">
         <v>80</v>
       </c>
@@ -4214,7 +4204,7 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
     </row>
-    <row r="29" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E29, A$3)</f>
         <v>#NAME?</v>
@@ -4330,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E30, A$3)</f>
         <v>#NAME?</v>
@@ -4446,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E31, A$3)</f>
         <v>#NAME?</v>
@@ -4562,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E32, A$3)</f>
         <v>#NAME?</v>
@@ -4669,7 +4659,7 @@
       <c r="AB32" s="50"/>
       <c r="AC32" s="50"/>
     </row>
-    <row r="33" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E33, A$3)</f>
         <v>#NAME?</v>
@@ -4776,7 +4766,7 @@
       <c r="AB33" s="50"/>
       <c r="AC33" s="50"/>
     </row>
-    <row r="34" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E34, A$3)</f>
         <v>#NAME?</v>
@@ -4892,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E35, A$3)</f>
         <v>#NAME?</v>
@@ -5008,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E36, A$3)</f>
         <v>#NAME?</v>
@@ -5124,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E37, A$3)</f>
         <v>#NAME?</v>
@@ -5240,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E38, A$3)</f>
         <v>#NAME?</v>
@@ -5356,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B39" s="79"/>
       <c r="C39" s="79"/>
       <c r="D39" s="61"/>
@@ -5444,7 +5434,7 @@
       <c r="AA39" s="71"/>
       <c r="AB39" s="71"/>
     </row>
-    <row r="40" spans="1:29" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" ht="16.8" x14ac:dyDescent="0.25">
       <c r="D40" s="31" t="s">
         <v>101</v>
       </c>
@@ -5474,7 +5464,7 @@
       <c r="AB40" s="35"/>
       <c r="AC40" s="35"/>
     </row>
-    <row r="41" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E41, A$3)</f>
         <v>#NAME?</v>
@@ -5590,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" ht="16.8" x14ac:dyDescent="0.25">
       <c r="D42" s="31" t="s">
         <v>104</v>
       </c>
@@ -5620,7 +5610,7 @@
       <c r="AB42" s="35"/>
       <c r="AC42" s="35"/>
     </row>
-    <row r="43" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E43, A$3)</f>
         <v>#NAME?</v>
@@ -5700,7 +5690,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E44, A$3)</f>
         <v>#NAME?</v>
@@ -5780,7 +5770,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($E45, A$3)</f>
         <v>#NAME?</v>
@@ -5860,56 +5850,56 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D46" s="88"/>
     </row>
-    <row r="47" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D47" s="89"/>
     </row>
-    <row r="48" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D48" s="89"/>
     </row>
-    <row r="49" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D49" s="89"/>
     </row>
-    <row r="50" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D50" s="89"/>
       <c r="E50" s="90"/>
       <c r="F50" s="90"/>
     </row>
-    <row r="51" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D51" s="89"/>
       <c r="E51" s="90"/>
       <c r="F51" s="90"/>
     </row>
-    <row r="52" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D52" s="89"/>
     </row>
-    <row r="53" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D53" s="89"/>
     </row>
-    <row r="54" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D54" s="89"/>
     </row>
-    <row r="55" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D55" s="89"/>
     </row>
-    <row r="56" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D56" s="89"/>
     </row>
-    <row r="57" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D57" s="89"/>
     </row>
-    <row r="58" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D58" s="89"/>
     </row>
-    <row r="59" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D59" s="89"/>
     </row>
-    <row r="60" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D60" s="89"/>
     </row>
-    <row r="61" spans="4:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="D61" s="91"/>
     </row>
   </sheetData>
